--- a/AutoTest/ExcelScript/UT_Test02.xlsx
+++ b/AutoTest/ExcelScript/UT_Test02.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="99">
   <si>
     <t>NO</t>
   </si>
@@ -62,57 +62,42 @@
   </si>
   <si>
     <t>画面</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>SZHC兪</t>
     <rPh sb="4" eb="5">
       <t>ユ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Sleep➡</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -120,89 +105,89 @@
   </si>
   <si>
     <t>座標Y</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Pic➡</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>番号⬇</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ディレクトリ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ファイル名</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>パラメータ</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>パタン</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>判定</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>観点No</t>
     <rPh sb="0" eb="2">
       <t>カンテン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>名前を付けて保存</t>
     <rPh sb="1" eb="2">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>template1.pdf</t>
@@ -212,15 +197,15 @@
   </si>
   <si>
     <t>ケースNo</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>File\Case001</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>File\Case002</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -237,7 +222,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>AutoTest</t>
@@ -351,40 +336,16 @@
     <t>下</t>
   </si>
   <si>
-    <t>Click</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>WindowsForms10.BUTTON.app.0.141b42a_r6_ad1</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>237</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>180</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Copy:A我BC</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Click:2</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -401,11 +362,7 @@
       </rPr>
       <t>.1</t>
     </r>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -422,7 +379,7 @@
       </rPr>
       <t>.1</t>
     </r>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -530,43 +487,56 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>98</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Up</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Down</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Left</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Right</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Enter</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Backspace:5</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,35 +718,36 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1126,7 +1097,7 @@
       <c r="G2" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1136,7 +1107,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1153,22 +1124,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
@@ -1176,16 +1147,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -1194,17 +1165,15 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7">
         <v>2</v>
@@ -1213,17 +1182,15 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7">
         <v>3</v>
@@ -1232,17 +1199,15 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7">
         <v>4</v>
@@ -1251,17 +1216,15 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7">
         <v>5</v>
@@ -1270,17 +1233,15 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7">
         <v>6</v>
@@ -1289,17 +1250,15 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="7">
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7">
         <v>7</v>
@@ -1309,17 +1268,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1347,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4">
         <v>1</v>
@@ -1371,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -1383,39 +1342,39 @@
         <v>17</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>16</v>
@@ -1447,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -1472,10 +1431,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D5" s="8">
         <v>221</v>
@@ -1497,10 +1456,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8">
         <v>221</v>
@@ -1522,10 +1481,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" s="8">
         <v>221</v>
@@ -1547,10 +1506,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8">
         <v>691</v>
@@ -1572,10 +1531,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" s="8">
         <v>456</v>
@@ -1597,10 +1556,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D10" s="8">
         <v>551</v>
@@ -1622,10 +1581,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D11" s="8">
         <v>462</v>
@@ -1647,10 +1606,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12" s="8">
         <v>503</v>
@@ -1672,10 +1631,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8">
         <v>513</v>
@@ -1697,10 +1656,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D14" s="8">
         <v>644</v>
@@ -1722,10 +1681,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D15" s="8">
         <v>551</v>
@@ -1747,10 +1706,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8">
         <v>587</v>
@@ -1772,10 +1731,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8">
         <v>591</v>
@@ -1797,10 +1756,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8">
         <v>591</v>
@@ -1822,10 +1781,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8">
         <v>457</v>
@@ -1843,22 +1802,24 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="8">
-        <v>17</v>
+      <c r="A20" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D20" s="8">
-        <v>457</v>
+        <v>719</v>
       </c>
       <c r="E20" s="8">
-        <v>234</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1869,21 +1830,23 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="D21" s="8">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="E21" s="8">
-        <v>304</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1894,19 +1857,19 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D22" s="8">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="E22" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1919,19 +1882,19 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D23" s="8">
         <v>456</v>
       </c>
       <c r="E23" s="8">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1944,19 +1907,19 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D24" s="8">
         <v>456</v>
       </c>
       <c r="E24" s="8">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1969,19 +1932,19 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D25" s="8">
-        <v>224</v>
+        <v>456</v>
       </c>
       <c r="E25" s="8">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1994,19 +1957,19 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D26" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E26" s="8">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -2019,19 +1982,19 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D27" s="8">
-        <v>825</v>
+        <v>221</v>
       </c>
       <c r="E27" s="8">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -2044,23 +2007,21 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D28" s="8">
+        <v>825</v>
+      </c>
+      <c r="E28" s="8">
+        <v>170</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -2070,24 +2031,22 @@
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" s="13" t="s">
-        <v>98</v>
+      <c r="A29" s="8">
+        <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -2097,20 +2056,20 @@
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A30" s="8">
-        <v>26</v>
+      <c r="A30" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="8">
-        <v>745</v>
-      </c>
-      <c r="E30" s="8">
-        <v>170</v>
+        <v>82</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -2123,19 +2082,19 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" s="8">
-        <v>221</v>
+        <v>745</v>
       </c>
       <c r="E31" s="8">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -2147,25 +2106,23 @@
       <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" s="14" t="s">
-        <v>100</v>
+      <c r="A32" s="8">
+        <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>107</v>
+        <v>48</v>
+      </c>
+      <c r="D32" s="8">
+        <v>221</v>
+      </c>
+      <c r="E32" s="8">
+        <v>72</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -2175,16 +2132,22 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -2194,16 +2157,14 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="14" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -2213,16 +2174,14 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -2232,16 +2191,14 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -2251,16 +2208,14 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="14" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
-        <v>112</v>
-      </c>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -2269,21 +2224,13 @@
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" s="8">
-        <v>29</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="8">
-        <v>579</v>
-      </c>
-      <c r="E38" s="8">
-        <v>114</v>
-      </c>
+      <c r="A38" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -2295,46 +2242,44 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>93</v>
+        <v>67</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D39" s="8">
-        <v>826</v>
+        <v>579</v>
       </c>
       <c r="E39" s="8">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="D40" s="8">
-        <v>280</v>
+        <v>826</v>
       </c>
       <c r="E40" s="8">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -2347,16 +2292,16 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D41" s="8">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="E41" s="8">
         <v>114</v>
@@ -2372,25 +2317,23 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D42" s="8">
         <v>227</v>
       </c>
       <c r="E42" s="8">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -2399,19 +2342,19 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="8">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E43" s="8">
-        <v>515</v>
+        <v>129</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -2424,19 +2367,19 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D44" s="8">
         <v>221</v>
       </c>
       <c r="E44" s="8">
-        <v>31</v>
+        <v>515</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -2449,16 +2392,16 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D45" s="8">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E45" s="8">
         <v>31</v>
@@ -2474,16 +2417,16 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="8">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="E46" s="8">
         <v>31</v>
@@ -2499,19 +2442,19 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D47" s="8">
         <v>8</v>
       </c>
       <c r="E47" s="8">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -2524,19 +2467,19 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D48" s="8">
         <v>8</v>
       </c>
       <c r="E48" s="8">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -2549,19 +2492,19 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="8">
         <v>8</v>
       </c>
       <c r="E49" s="8">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -2574,19 +2517,19 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D50" s="8">
         <v>8</v>
       </c>
       <c r="E50" s="8">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -2599,19 +2542,19 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D51" s="8">
         <v>8</v>
       </c>
       <c r="E51" s="8">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -2624,19 +2567,19 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D52" s="8">
         <v>8</v>
       </c>
       <c r="E52" s="8">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -2649,19 +2592,19 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="8">
         <v>8</v>
       </c>
       <c r="E53" s="8">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -2674,19 +2617,19 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D54" s="8">
         <v>8</v>
       </c>
       <c r="E54" s="8">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -2699,19 +2642,19 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D55" s="8">
         <v>8</v>
       </c>
       <c r="E55" s="8">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -2724,19 +2667,19 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D56" s="8">
         <v>8</v>
       </c>
       <c r="E56" s="8">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -2749,28 +2692,24 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D57" s="8">
-        <v>566</v>
+        <v>8</v>
       </c>
       <c r="E57" s="8">
-        <v>358</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -2778,33 +2717,56 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D58" s="8">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E58" s="8">
-        <v>498</v>
+        <v>358</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" s="8">
+        <v>49</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="8">
+        <v>569</v>
+      </c>
+      <c r="E59" s="8">
+        <v>498</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2828,16 +2790,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -2845,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2859,17 +2821,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>